--- a/kpi_clicks_report.xlsx
+++ b/kpi_clicks_report.xlsx
@@ -227,7 +227,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'KPI y Clics'!B41</f>
+              <f>'KPI y Clics'!B42</f>
             </strRef>
           </tx>
           <spPr>
@@ -237,12 +237,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'KPI y Clics'!$A$41:$A$42</f>
+              <f>'KPI y Clics'!$A$42:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'KPI y Clics'!$B$42</f>
+              <f>'KPI y Clics'!$B$43</f>
             </numRef>
           </val>
         </ser>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,39 +1155,54 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Button Name</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Clicks</t>
-        </is>
+          <t>Telefono Alternativo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Linkedin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>32</v>
+          <t>Button Name</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Clicks</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Telefono Alternativo</t>
+          <t>Linkedin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>116</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Telefono Alternativo</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
